--- a/Users Loads5.xlsx
+++ b/Users Loads5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5587488133231377</v>
+        <v>0.7059803671332811</v>
       </c>
       <c r="C2" t="n">
-        <v>3.217921151781004</v>
+        <v>6.000740194474543</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4568317074645359</v>
+        <v>0.3455492450926361</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6082456731154063</v>
+        <v>0.8588998903135961</v>
       </c>
       <c r="C3" t="n">
-        <v>2.45144549823986</v>
+        <v>8.539121374044129</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3032836967607428</v>
+        <v>0.4842121119966364</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.395801233726343</v>
+        <v>1.181159541300822</v>
       </c>
       <c r="C4" t="n">
-        <v>5.168180311878612</v>
+        <v>9.138533059397146</v>
       </c>
       <c r="D4" t="n">
-        <v>0.578047255980764</v>
+        <v>0.4200883040545715</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.182862933455012</v>
+        <v>1.264627769454546</v>
       </c>
       <c r="C5" t="n">
-        <v>3.338815922668295</v>
+        <v>6.085326651636885</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2477498706632804</v>
+        <v>0.3659508890830308</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.793933991809978</v>
+        <v>3.473872014173258</v>
       </c>
       <c r="C6" t="n">
-        <v>4.761235222148877</v>
+        <v>3.569859245033467</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3437249865416017</v>
+        <v>0.1270647057051456</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.42439594512039</v>
+        <v>3.645742934888355</v>
       </c>
       <c r="C7" t="n">
-        <v>6.216265359407102</v>
+        <v>11.01302718661252</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3074462240526707</v>
+        <v>0.2824115060803675</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.17233255059466</v>
+        <v>3.970053652738613</v>
       </c>
       <c r="C8" t="n">
-        <v>4.929232457496285</v>
+        <v>5.023205607971207</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1548853371445982</v>
+        <v>0.2122086565515073</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.011947159687265</v>
+        <v>4.014262158712531</v>
       </c>
       <c r="C9" t="n">
-        <v>6.419397983347523</v>
+        <v>3.888353644833318</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7727553711439659</v>
+        <v>0.2975972647259342</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.95112244185782</v>
+        <v>5.625167291919143</v>
       </c>
       <c r="C10" t="n">
-        <v>4.504376937305292</v>
+        <v>7.224329678601086</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5082071066061598</v>
+        <v>0.4504087029747154</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.6620201432215</v>
+        <v>5.667657353532886</v>
       </c>
       <c r="C11" t="n">
-        <v>5.98489511199143</v>
+        <v>4.622089742441328</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3895976182949965</v>
+        <v>0.1276369188043017</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13.55581643152622</v>
+        <v>6.313728330290092</v>
       </c>
       <c r="C12" t="n">
-        <v>2.429112186337294</v>
+        <v>4.554009606143064</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2959030480295602</v>
+        <v>0.356697946791557</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16.41041711541333</v>
+        <v>6.53317134349532</v>
       </c>
       <c r="C13" t="n">
-        <v>4.737545991879685</v>
+        <v>5.411774857269761</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4805745812476352</v>
+        <v>0.3400918108797829</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16.93422728068342</v>
+        <v>8.016142742106069</v>
       </c>
       <c r="C14" t="n">
-        <v>6.653007986923138</v>
+        <v>5.554290352927392</v>
       </c>
       <c r="D14" t="n">
-        <v>0.242541103513922</v>
+        <v>0.4221333183700896</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19.34930663557489</v>
+        <v>8.313580752843487</v>
       </c>
       <c r="C15" t="n">
-        <v>3.293587943105495</v>
+        <v>4.536261838362948</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2125222260262435</v>
+        <v>0.6562489658894486</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20.73120017609427</v>
+        <v>9.667601746895421</v>
       </c>
       <c r="C16" t="n">
-        <v>4.900327343636524</v>
+        <v>9.097146206390851</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6008301319183648</v>
+        <v>0.3304879372842101</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21.88084324606002</v>
+        <v>12.36296746635557</v>
       </c>
       <c r="C17" t="n">
-        <v>4.857985551272019</v>
+        <v>7.266186882205264</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6147496567877089</v>
+        <v>0.175396390162881</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>22.09064308557152</v>
+        <v>12.78237950938197</v>
       </c>
       <c r="C18" t="n">
-        <v>4.541285720947466</v>
+        <v>4.369045422291209</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4350903573814081</v>
+        <v>0.5108708973512448</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>22.61769648127308</v>
+        <v>12.80645809459341</v>
       </c>
       <c r="C19" t="n">
-        <v>4.057123268287646</v>
+        <v>8.041241373301107</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1449267252526428</v>
+        <v>0.499024079015461</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>23.20755424950307</v>
+        <v>14.22659046028202</v>
       </c>
       <c r="C20" t="n">
-        <v>2.395286559571518</v>
+        <v>5.605407416794779</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4654475050481125</v>
+        <v>0.5089385605131096</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>23.9818883459612</v>
+        <v>15.6631168504664</v>
       </c>
       <c r="C21" t="n">
-        <v>2.548000576839138</v>
+        <v>5.904381250166546</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2839040068982439</v>
+        <v>0.2056102163489589</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>24.13851005893635</v>
+        <v>15.80626632077679</v>
       </c>
       <c r="C22" t="n">
-        <v>2.194906875516808</v>
+        <v>5.188497301867421</v>
       </c>
       <c r="D22" t="n">
-        <v>0.321058860657244</v>
+        <v>0.4518657220555218</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>24.48583866339612</v>
+        <v>17.07074559661395</v>
       </c>
       <c r="C23" t="n">
-        <v>3.915242985517779</v>
+        <v>5.531085528312366</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7158763296001741</v>
+        <v>0.1794242695908245</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>26.59385080450172</v>
+        <v>17.87392057565982</v>
       </c>
       <c r="C24" t="n">
-        <v>3.636370725707142</v>
+        <v>9.318064446630205</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3688075003145565</v>
+        <v>0.3229879859926074</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>29.78283739760222</v>
+        <v>18.06710107684812</v>
       </c>
       <c r="C25" t="n">
-        <v>2.798487041125832</v>
+        <v>7.634228619830926</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4317563511452886</v>
+        <v>0.247483322190862</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>30.29367076342464</v>
+        <v>20.83048069901644</v>
       </c>
       <c r="C26" t="n">
-        <v>1.85826604464756</v>
+        <v>6.949785820930529</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3481429307699172</v>
+        <v>0.3449529010495075</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>34.55269355466202</v>
+        <v>20.95196966957867</v>
       </c>
       <c r="C27" t="n">
-        <v>3.790108129644829</v>
+        <v>3.010923142280774</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5921033631395839</v>
+        <v>0.1059470440056354</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>35.23235350408768</v>
+        <v>22.0787073991098</v>
       </c>
       <c r="C28" t="n">
-        <v>4.33193891448834</v>
+        <v>8.308612740787245</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8320933946836307</v>
+        <v>0.3334752810152738</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>35.59385193869543</v>
+        <v>22.24095768344982</v>
       </c>
       <c r="C29" t="n">
-        <v>1.65471039599827</v>
+        <v>8.172800512542002</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1926593427175862</v>
+        <v>0.4796701983632727</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>35.68734332541121</v>
+        <v>22.24508822661634</v>
       </c>
       <c r="C30" t="n">
-        <v>6.14593124118339</v>
+        <v>5.60035923662959</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6372599835463849</v>
+        <v>0.4398375607538442</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>37.97350648838896</v>
+        <v>25.44093594309307</v>
       </c>
       <c r="C31" t="n">
-        <v>8.896066960223882</v>
+        <v>9.542164397214902</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5576177399288055</v>
+        <v>0.4918500050234528</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>39.73613727273259</v>
+        <v>26.09137428663887</v>
       </c>
       <c r="C32" t="n">
-        <v>5.204561592330727</v>
+        <v>4.933988447426825</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6173429726581668</v>
+        <v>0.331070733103747</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>39.81704138849147</v>
+        <v>26.51760141394267</v>
       </c>
       <c r="C33" t="n">
-        <v>4.954775055151621</v>
+        <v>4.923544163163863</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4424854554512201</v>
+        <v>0.1795611505230401</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>42.27850344251463</v>
+        <v>27.50847166241381</v>
       </c>
       <c r="C34" t="n">
-        <v>4.74801250728767</v>
+        <v>2.034345787198051</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7160961829477174</v>
+        <v>0.2863685268471703</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>42.71589870899093</v>
+        <v>28.36089172530044</v>
       </c>
       <c r="C35" t="n">
-        <v>4.200171336155851</v>
+        <v>7.52820818647724</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4421114408576715</v>
+        <v>0.4089212532119568</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>44.43204164585257</v>
+        <v>28.9026373642799</v>
       </c>
       <c r="C36" t="n">
-        <v>7.114021098212392</v>
+        <v>5.355885225002929</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4647725903355358</v>
+        <v>0.4162733328923237</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>44.50313749241838</v>
+        <v>36.12868318369674</v>
       </c>
       <c r="C37" t="n">
-        <v>4.148113578299581</v>
+        <v>3.214047003235579</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6510693772047315</v>
+        <v>0.1189991037667874</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>46.42914543209965</v>
+        <v>37.70778974865415</v>
       </c>
       <c r="C38" t="n">
-        <v>4.444601389786988</v>
+        <v>7.269729814379309</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6076570106797459</v>
+        <v>0.3174808586488586</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>46.54811983921389</v>
+        <v>38.63767612949295</v>
       </c>
       <c r="C39" t="n">
-        <v>4.169973244813505</v>
+        <v>7.917872925425494</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3168092825832992</v>
+        <v>0.2214214699855491</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>49.63794470787489</v>
+        <v>39.32680234259992</v>
       </c>
       <c r="C40" t="n">
-        <v>3.710521015484511</v>
+        <v>7.940997581872728</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6645930685998744</v>
+        <v>0.4609862588774792</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>51.3308206370731</v>
+        <v>39.84024563120273</v>
       </c>
       <c r="C41" t="n">
-        <v>8.77489473868223</v>
+        <v>12.06691055335134</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4107575364188762</v>
+        <v>0.3992975827545609</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>52.09447402799653</v>
+        <v>40.66662097032027</v>
       </c>
       <c r="C42" t="n">
-        <v>2.578770985872496</v>
+        <v>7.683081659589782</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2681212930994212</v>
+        <v>0.3885648367714721</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>55.82812462276624</v>
+        <v>41.82520886548279</v>
       </c>
       <c r="C43" t="n">
-        <v>5.500132274463578</v>
+        <v>9.372316014000461</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5027447084785699</v>
+        <v>0.2472940669408271</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>56.57641742337328</v>
+        <v>41.85948590102942</v>
       </c>
       <c r="C44" t="n">
-        <v>2.192407167228494</v>
+        <v>2.674794764191734</v>
       </c>
       <c r="D44" t="n">
-        <v>0.478202545016039</v>
+        <v>0.140070506585486</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>57.5070589388404</v>
+        <v>41.92308525711873</v>
       </c>
       <c r="C45" t="n">
-        <v>2.749250838212796</v>
+        <v>6.571682794601273</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1745180187110897</v>
+        <v>0.3999865763654745</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>59.28873254351366</v>
+        <v>44.48433055199727</v>
       </c>
       <c r="C46" t="n">
-        <v>4.891050388851532</v>
+        <v>4.712054072037624</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5334192038152356</v>
+        <v>0.1686611829429617</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>60.22344154280444</v>
+        <v>45.10098943625466</v>
       </c>
       <c r="C47" t="n">
-        <v>1.406972452380898</v>
+        <v>9.399451964409877</v>
       </c>
       <c r="D47" t="n">
-        <v>0.336468855672618</v>
+        <v>0.357685466908407</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>61.54390777296737</v>
+        <v>47.93599483297612</v>
       </c>
       <c r="C48" t="n">
-        <v>5.679593704062156</v>
+        <v>7.933665800282998</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5129727195315945</v>
+        <v>0.4071246418201304</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>62.26489309503641</v>
+        <v>50.13742880788773</v>
       </c>
       <c r="C49" t="n">
-        <v>5.013763087711201</v>
+        <v>5.237294395912475</v>
       </c>
       <c r="D49" t="n">
-        <v>0.51762884093649</v>
+        <v>0.3309959295258591</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>63.7218904903859</v>
+        <v>50.49702985360215</v>
       </c>
       <c r="C50" t="n">
-        <v>4.362619421777334</v>
+        <v>12.74321774502592</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3225313286468453</v>
+        <v>0.2516741024581569</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>64.61579228334914</v>
+        <v>54.51383113007305</v>
       </c>
       <c r="C51" t="n">
-        <v>5.90220809887649</v>
+        <v>10.39330069357523</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6959983044795547</v>
+        <v>0.3989534298577045</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>66.33321196853419</v>
+        <v>54.53522158881689</v>
       </c>
       <c r="C52" t="n">
-        <v>2.642782822319042</v>
+        <v>8.986490847843839</v>
       </c>
       <c r="D52" t="n">
-        <v>0.296245374049131</v>
+        <v>0.347601829696922</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>66.44093173250113</v>
+        <v>54.7549267304593</v>
       </c>
       <c r="C53" t="n">
-        <v>3.853743358419471</v>
+        <v>4.123833048268114</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6970801054414231</v>
+        <v>0.121622643947722</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>71.60568800522239</v>
+        <v>55.96037459344078</v>
       </c>
       <c r="C54" t="n">
-        <v>7.313517005933953</v>
+        <v>6.166951194429389</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8634094136887499</v>
+        <v>0.4007542056721736</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>71.6312903173428</v>
+        <v>57.43656351538809</v>
       </c>
       <c r="C55" t="n">
-        <v>4.729345069453288</v>
+        <v>5.742362762869638</v>
       </c>
       <c r="D55" t="n">
-        <v>0.403529850284018</v>
+        <v>0.3803658520008987</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>72.20752507989297</v>
+        <v>57.89869730240021</v>
       </c>
       <c r="C56" t="n">
-        <v>8.817188620043714</v>
+        <v>13.81782270547069</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4883808367032858</v>
+        <v>0.2103620716047186</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>72.95788387484804</v>
+        <v>59.63745868420688</v>
       </c>
       <c r="C57" t="n">
-        <v>2.136334870964119</v>
+        <v>2.417208538022104</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3317851179996631</v>
+        <v>0.4317726873412353</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>74.98179645906426</v>
+        <v>61.22325135494003</v>
       </c>
       <c r="C58" t="n">
-        <v>6.478864131980073</v>
+        <v>4.634154771616825</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4537560076115902</v>
+        <v>0.2388308211433357</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>77.66941847119688</v>
+        <v>61.3577642211892</v>
       </c>
       <c r="C59" t="n">
-        <v>5.628507676189045</v>
+        <v>4.723934710983621</v>
       </c>
       <c r="D59" t="n">
-        <v>0.532916536361373</v>
+        <v>0.08772108028054808</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>77.80890686470364</v>
+        <v>63.45476144937169</v>
       </c>
       <c r="C60" t="n">
-        <v>6.673597399705545</v>
+        <v>4.660808740721058</v>
       </c>
       <c r="D60" t="n">
-        <v>0.364039170175213</v>
+        <v>0.5139470308260793</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>85.23106898384901</v>
+        <v>65.01648872752075</v>
       </c>
       <c r="C61" t="n">
-        <v>1.638822327929891</v>
+        <v>7.841827503978481</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2969045975133199</v>
+        <v>0.3958263646926503</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>86.40415561853899</v>
+        <v>65.83328542531157</v>
       </c>
       <c r="C62" t="n">
-        <v>5.374664595274248</v>
+        <v>2.881025167392018</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5245928657289383</v>
+        <v>0.4611292046152595</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>87.99283870108967</v>
+        <v>68.40303923589109</v>
       </c>
       <c r="C63" t="n">
-        <v>6.869043091818644</v>
+        <v>8.123242873081248</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5976864996258984</v>
+        <v>0.3447152386872328</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>91.44722671361751</v>
+        <v>69.12420743050615</v>
       </c>
       <c r="C64" t="n">
-        <v>3.767544302935901</v>
+        <v>5.746220505955768</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5157509225075467</v>
+        <v>0.2160539654562033</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>92.08765135236011</v>
+        <v>69.75785253650378</v>
       </c>
       <c r="C65" t="n">
-        <v>4.227746967163442</v>
+        <v>1.082395301973052</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3659854824362559</v>
+        <v>0.2597860606522497</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>93.98744907594403</v>
+        <v>70.3427457732526</v>
       </c>
       <c r="C66" t="n">
-        <v>1.373517745902836</v>
+        <v>7.113320444702901</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2518328344520398</v>
+        <v>0.3474439157955942</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>95.99145129178207</v>
+        <v>72.39337717485667</v>
       </c>
       <c r="C67" t="n">
-        <v>5.798657460877801</v>
+        <v>7.778870440400711</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6764223893381207</v>
+        <v>0.3895702767098883</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>97.49642482005265</v>
+        <v>72.70556732462367</v>
       </c>
       <c r="C68" t="n">
-        <v>3.474753849548833</v>
+        <v>4.409637328381426</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3957999634499685</v>
+        <v>0.1301594699674853</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>99.1093298587985</v>
+        <v>74.04694733149661</v>
       </c>
       <c r="C69" t="n">
-        <v>2.233359382327312</v>
+        <v>7.072270174668874</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2320833995119198</v>
+        <v>0.2760220567401796</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,307 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>99.58222500151338</v>
+        <v>75.80017519431513</v>
       </c>
       <c r="C70" t="n">
-        <v>1.932572400551269</v>
+        <v>12.43340157047926</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3824148150031555</v>
+        <v>0.3186511740695718</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>75.91809499348531</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6.070771663656712</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.6581210495936287</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>75.94485720845721</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7.268624967589394</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.2681761967173382</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>76.59510260488659</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.286237353207712</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.2604739286702866</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>77.62053705710042</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4.634939004338043</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.2034684436087982</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>78.75180959034047</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4.809277604431989</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.09193181919709451</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>78.78674047470659</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.602869632141251</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.07599508110823949</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>82.64292290348486</v>
+      </c>
+      <c r="C77" t="n">
+        <v>8.679684956183539</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.3841101541941955</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>84.59612856976561</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7.396476076208896</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.5152177129112275</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>84.82916152922854</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4.576191397044063</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.179580003662377</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>85.66456382428362</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.091600208687282</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.2376298875920739</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>86.9920270390258</v>
+      </c>
+      <c r="C81" t="n">
+        <v>5.944468054327422</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.4250491240974965</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>87.05098319054147</v>
+      </c>
+      <c r="C82" t="n">
+        <v>9.343448888266195</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.308677910953313</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>87.14371529583653</v>
+      </c>
+      <c r="C83" t="n">
+        <v>7.346726965145111</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.2752479831354532</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>88.94857989161616</v>
+      </c>
+      <c r="C84" t="n">
+        <v>9.669386285582066</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.4095860231852008</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>90.15110720919807</v>
+      </c>
+      <c r="C85" t="n">
+        <v>7.861307268622232</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.2595078463601367</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>90.7244993027327</v>
+      </c>
+      <c r="C86" t="n">
+        <v>5.43183242082154</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.3591590373300509</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>91.13173727612752</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6.00748497086996</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.1221402549471105</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>92.47207352497885</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3.300505401657651</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.167989962881604</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>94.658401446821</v>
+      </c>
+      <c r="C89" t="n">
+        <v>6.203347597454901</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.2365197740074682</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>94.7583510701718</v>
+      </c>
+      <c r="C90" t="n">
+        <v>9.426094129251076</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.3600440228978684</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>97.69547115819421</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4.319385838883239</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.2679182268644573</v>
       </c>
     </row>
   </sheetData>
